--- a/docs/time_logs/kevin_time_log.xlsx
+++ b/docs/time_logs/kevin_time_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83CCC94-77CB-4974-9ED4-DAA8C16302FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDD6D17-334C-47BB-8CA8-93029F999D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Name Here</t>
   </si>
@@ -86,6 +86,18 @@
   </si>
   <si>
     <t>Team meeting</t>
+  </si>
+  <si>
+    <t>Fixing and updating time logs</t>
+  </si>
+  <si>
+    <t>Testing and practicing with Ncurses</t>
+  </si>
+  <si>
+    <t>Team Meeting</t>
+  </si>
+  <si>
+    <t>Completing ncurses test file</t>
   </si>
 </sst>
 </file>
@@ -129,9 +141,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -140,6 +149,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +469,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -470,29 +482,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
+      <c r="A2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
@@ -503,17 +515,17 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>44207.583333333336</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>44207.59375</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <f>B4-A4</f>
         <v>1.0416666664241347E-2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <f>C4</f>
         <v>1.0416666664241347E-2</v>
       </c>
@@ -522,17 +534,17 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>44208.583333333336</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>44208.59375</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <f t="shared" ref="C5:C6" si="0">B5-A5</f>
         <v>1.0416666664241347E-2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f>C5+D4</f>
         <v>2.0833333328482695E-2</v>
       </c>
@@ -541,17 +553,17 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>44209.666666666664</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>44209.677083333336</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <f t="shared" si="0"/>
         <v>1.0416666671517305E-2</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <f>C6+D5</f>
         <v>3.125E-2</v>
       </c>
@@ -560,17 +572,17 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>44210.583333333336</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>44210.625</v>
       </c>
-      <c r="C7" s="6">
-        <f>B7-A7</f>
+      <c r="C7" s="5">
+        <f t="shared" ref="C7:C20" si="1">B7-A7</f>
         <v>4.1666666664241347E-2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f>C7+D6</f>
         <v>7.2916666664241347E-2</v>
       </c>
@@ -579,17 +591,17 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>44213.708333333336</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>44213.729166666664</v>
       </c>
-      <c r="C8" s="6">
-        <f>B8-A8</f>
+      <c r="C8" s="5">
+        <f t="shared" si="1"/>
         <v>2.0833333328482695E-2</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <f>C8+D7</f>
         <v>9.3749999992724042E-2</v>
       </c>
@@ -598,18 +610,18 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>44214.541666666664</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>44214.583333333336</v>
       </c>
-      <c r="C9" s="6">
-        <f>B9-A9</f>
+      <c r="C9" s="5">
+        <f t="shared" si="1"/>
         <v>4.1666666671517305E-2</v>
       </c>
-      <c r="D9" s="6">
-        <f t="shared" ref="D9:D18" si="1">C9+D8</f>
+      <c r="D9" s="5">
+        <f t="shared" ref="D9:D20" si="2">C9+D8</f>
         <v>0.13541666666424135</v>
       </c>
       <c r="E9" t="s">
@@ -617,18 +629,18 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>44215.416666666664</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>44215.427083333336</v>
       </c>
-      <c r="C10" s="6">
-        <f>B10-A10</f>
+      <c r="C10" s="5">
+        <f t="shared" si="1"/>
         <v>1.0416666671517305E-2</v>
       </c>
-      <c r="D10" s="6">
-        <f t="shared" si="1"/>
+      <c r="D10" s="5">
+        <f t="shared" si="2"/>
         <v>0.14583333333575865</v>
       </c>
       <c r="E10" t="s">
@@ -636,18 +648,18 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>44218.625</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>44218.666666666664</v>
       </c>
-      <c r="C11" s="6">
-        <f>B11-A11</f>
+      <c r="C11" s="5">
+        <f t="shared" si="1"/>
         <v>4.1666666664241347E-2</v>
       </c>
-      <c r="D11" s="6">
-        <f t="shared" si="1"/>
+      <c r="D11" s="5">
+        <f t="shared" si="2"/>
         <v>0.1875</v>
       </c>
       <c r="E11" t="s">
@@ -655,18 +667,18 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>44218.708333333336</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>44218.739583333336</v>
       </c>
-      <c r="C12" s="6">
-        <f>B12-A12</f>
+      <c r="C12" s="5">
+        <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
-      <c r="D12" s="6">
-        <f t="shared" si="1"/>
+      <c r="D12" s="5">
+        <f t="shared" si="2"/>
         <v>0.21875</v>
       </c>
       <c r="E12" t="s">
@@ -674,18 +686,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>44222.416666666664</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>44222.4375</v>
       </c>
-      <c r="C13" s="6">
-        <f>B13-A13</f>
+      <c r="C13" s="5">
+        <f t="shared" si="1"/>
         <v>2.0833333335758653E-2</v>
       </c>
-      <c r="D13" s="6">
-        <f t="shared" si="1"/>
+      <c r="D13" s="5">
+        <f t="shared" si="2"/>
         <v>0.23958333333575865</v>
       </c>
       <c r="E13" t="s">
@@ -693,18 +705,18 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>44222.583333333336</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>44222.59375</v>
       </c>
-      <c r="C14" s="6">
-        <f>B14-A14</f>
+      <c r="C14" s="5">
+        <f t="shared" si="1"/>
         <v>1.0416666664241347E-2</v>
       </c>
-      <c r="D14" s="6">
-        <f t="shared" si="1"/>
+      <c r="D14" s="5">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="E14" t="s">
@@ -712,18 +724,18 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>44222.59375</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>44222.625</v>
       </c>
-      <c r="C15" s="6">
-        <f>B15-A15</f>
+      <c r="C15" s="5">
+        <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
-      <c r="D15" s="6">
-        <f t="shared" si="1"/>
+      <c r="D15" s="5">
+        <f t="shared" si="2"/>
         <v>0.28125</v>
       </c>
       <c r="E15" t="s">
@@ -731,24 +743,99 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="A16" s="7">
+        <v>44227.59375</v>
+      </c>
+      <c r="B16" s="7">
+        <v>44227.614583333336</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0833333335758653E-2</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="2"/>
+        <v>0.30208333333575865</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>44228.666666666664</v>
+      </c>
+      <c r="B17" s="7">
+        <v>44228.708333333336</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="1"/>
+        <v>4.1666666671517305E-2</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34375000000727596</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>44229.416666666664</v>
+      </c>
+      <c r="B18" s="7">
+        <v>44229.427083333336</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0416666671517305E-2</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="2"/>
+        <v>0.35416666667879326</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>44229.583333333336</v>
+      </c>
+      <c r="B19" s="7">
+        <v>44229.59375</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0416666664241347E-2</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="2"/>
+        <v>0.36458333334303461</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>44600.833333333336</v>
+      </c>
+      <c r="B20" s="7">
+        <v>44600.895833333336</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="2"/>
+        <v>0.42708333334303461</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/kevin_time_log.xlsx
+++ b/docs/time_logs/kevin_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDD6D17-334C-47BB-8CA8-93029F999D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3201923-838E-4CA6-90B1-D2AB77BD89AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Name Here</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>Completing ncurses test file</t>
+  </si>
+  <si>
+    <t>Work with graphical displays using ncruses</t>
+  </si>
+  <si>
+    <t>Started implementation of WIFI Browser TUI</t>
   </si>
 </sst>
 </file>
@@ -466,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -579,7 +585,7 @@
         <v>44210.625</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" ref="C7:C20" si="1">B7-A7</f>
+        <f t="shared" ref="C7:C22" si="1">B7-A7</f>
         <v>4.1666666664241347E-2</v>
       </c>
       <c r="D7" s="5">
@@ -621,7 +627,7 @@
         <v>4.1666666671517305E-2</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" ref="D9:D20" si="2">C9+D8</f>
+        <f t="shared" ref="D9:D22" si="2">C9+D8</f>
         <v>0.13541666666424135</v>
       </c>
       <c r="E9" t="s">
@@ -835,6 +841,44 @@
       </c>
       <c r="E20" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>44603.666666666664</v>
+      </c>
+      <c r="B21" s="7">
+        <v>44603.697916666664</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="2"/>
+        <v>0.45833333334303461</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>44606.625</v>
+      </c>
+      <c r="B22" s="7">
+        <v>44606.666666666664</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="1"/>
+        <v>4.1666666664241347E-2</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.50000000000727596</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/docs/time_logs/kevin_time_log.xlsx
+++ b/docs/time_logs/kevin_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3201923-838E-4CA6-90B1-D2AB77BD89AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B7DDB4-E3BA-41E5-AA9B-D0D043278EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Name Here</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>Started implementation of WIFI Browser TUI</t>
+  </si>
+  <si>
+    <t>Design and Layout testing</t>
+  </si>
+  <si>
+    <t>Ncurses development and testing</t>
+  </si>
+  <si>
+    <t>Milestone 4 work</t>
   </si>
 </sst>
 </file>
@@ -472,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -585,7 +594,7 @@
         <v>44210.625</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" ref="C7:C22" si="1">B7-A7</f>
+        <f t="shared" ref="C7:C27" si="1">B7-A7</f>
         <v>4.1666666664241347E-2</v>
       </c>
       <c r="D7" s="5">
@@ -627,7 +636,7 @@
         <v>4.1666666671517305E-2</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" ref="D9:D22" si="2">C9+D8</f>
+        <f t="shared" ref="D9:D27" si="2">C9+D8</f>
         <v>0.13541666666424135</v>
       </c>
       <c r="E9" t="s">
@@ -879,6 +888,101 @@
       </c>
       <c r="E22" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>44608.583333333336</v>
+      </c>
+      <c r="B23" s="7">
+        <v>44608.59375</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0416666664241347E-2</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="2"/>
+        <v>0.51041666667151731</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>44612.833333333336</v>
+      </c>
+      <c r="B24" s="7">
+        <v>44612.854166666664</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0833333328482695E-2</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="2"/>
+        <v>0.53125</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>44615.416666666664</v>
+      </c>
+      <c r="B25" s="7">
+        <v>44615.427083333336</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0416666671517305E-2</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="2"/>
+        <v>0.54166666667151731</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>44615.427083333336</v>
+      </c>
+      <c r="B26" s="7">
+        <v>44615.510416666664</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="1"/>
+        <v>8.3333333328482695E-2</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="2"/>
+        <v>0.625</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>44617.583333333336</v>
+      </c>
+      <c r="B27" s="7">
+        <v>44617.604166666664</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0833333328482695E-2</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="2"/>
+        <v>0.64583333332848269</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/time_logs/kevin_time_log.xlsx
+++ b/docs/time_logs/kevin_time_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B7DDB4-E3BA-41E5-AA9B-D0D043278EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2B6981-32A7-49F8-A3A8-E83CAB8CE31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Name Here</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>Milestone 4 work</t>
+  </si>
+  <si>
+    <t>TUI Implementation</t>
+  </si>
+  <si>
+    <t>Practice with sub-windows in Ncurses</t>
   </si>
 </sst>
 </file>
@@ -481,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -594,7 +600,7 @@
         <v>44210.625</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" ref="C7:C27" si="1">B7-A7</f>
+        <f t="shared" ref="C7:C29" si="1">B7-A7</f>
         <v>4.1666666664241347E-2</v>
       </c>
       <c r="D7" s="5">
@@ -636,7 +642,7 @@
         <v>4.1666666671517305E-2</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" ref="D9:D27" si="2">C9+D8</f>
+        <f t="shared" ref="D9:D29" si="2">C9+D8</f>
         <v>0.13541666666424135</v>
       </c>
       <c r="E9" t="s">
@@ -983,6 +989,82 @@
       </c>
       <c r="E27" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>44620.708333333336</v>
+      </c>
+      <c r="B28" s="7">
+        <v>44620.770833333336</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="2"/>
+        <v>0.70833333332848269</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>44621.416666666664</v>
+      </c>
+      <c r="B29" s="7">
+        <v>44621.447916666664</v>
+      </c>
+      <c r="C29" s="5">
+        <f>B29-A29</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="D29" s="5">
+        <f>C29+D28</f>
+        <v>0.73958333332848269</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>44622.416666666664</v>
+      </c>
+      <c r="B30" s="7">
+        <v>44622.427083333336</v>
+      </c>
+      <c r="C30" s="5">
+        <f>B30-A30</f>
+        <v>1.0416666671517305E-2</v>
+      </c>
+      <c r="D30" s="5">
+        <f>C30+D29</f>
+        <v>0.75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>44622.583333333336</v>
+      </c>
+      <c r="B31" s="7">
+        <v>44622.59375</v>
+      </c>
+      <c r="C31" s="5">
+        <f>B31-A31</f>
+        <v>1.0416666664241347E-2</v>
+      </c>
+      <c r="D31" s="5">
+        <f>C31+D30</f>
+        <v>0.76041666666424135</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/time_logs/kevin_time_log.xlsx
+++ b/docs/time_logs/kevin_time_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2B6981-32A7-49F8-A3A8-E83CAB8CE31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09798DF-BF36-4987-AE5D-15594538124A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1680" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Name Here</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Practice with sub-windows in Ncurses</t>
+  </si>
+  <si>
+    <t>Milestone 5 work</t>
   </si>
 </sst>
 </file>
@@ -487,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -600,7 +603,7 @@
         <v>44210.625</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" ref="C7:C29" si="1">B7-A7</f>
+        <f t="shared" ref="C7:C28" si="1">B7-A7</f>
         <v>4.1666666664241347E-2</v>
       </c>
       <c r="D7" s="5">
@@ -642,7 +645,7 @@
         <v>4.1666666671517305E-2</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" ref="D9:D29" si="2">C9+D8</f>
+        <f t="shared" ref="D9:D28" si="2">C9+D8</f>
         <v>0.13541666666424135</v>
       </c>
       <c r="E9" t="s">
@@ -1065,6 +1068,25 @@
       </c>
       <c r="E31" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>44631</v>
+      </c>
+      <c r="B32" s="7">
+        <v>44631.041666666664</v>
+      </c>
+      <c r="C32" s="5">
+        <f>B32-A32</f>
+        <v>4.1666666664241347E-2</v>
+      </c>
+      <c r="D32" s="5">
+        <f>C32+D31</f>
+        <v>0.80208333332848269</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/docs/time_logs/kevin_time_log.xlsx
+++ b/docs/time_logs/kevin_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09798DF-BF36-4987-AE5D-15594538124A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AD2751-B8C9-48C4-87EF-756948E94029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1680" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Name Here</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>Milestone 5 work</t>
+  </si>
+  <si>
+    <t>TUI structure created</t>
+  </si>
+  <si>
+    <t>Final Presentation work</t>
   </si>
 </sst>
 </file>
@@ -490,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1089,6 +1095,44 @@
         <v>29</v>
       </c>
     </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>44636.354166666664</v>
+      </c>
+      <c r="B33" s="7">
+        <v>44636.416666666664</v>
+      </c>
+      <c r="C33" s="5">
+        <f>B33-A33</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D33" s="5">
+        <f>C33+D32</f>
+        <v>0.86458333332848269</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>44636.416666666664</v>
+      </c>
+      <c r="B34" s="7">
+        <v>44636.447916666664</v>
+      </c>
+      <c r="C34" s="5">
+        <f>B34-A34</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="D34" s="5">
+        <f>C34+D33</f>
+        <v>0.89583333332848269</v>
+      </c>
+      <c r="E34" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/kevin_time_log.xlsx
+++ b/docs/time_logs/kevin_time_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AD2751-B8C9-48C4-87EF-756948E94029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0ACAE29-DCE2-4215-A83C-FBEACE2881CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1680" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Name Here</t>
   </si>
@@ -128,6 +128,21 @@
   </si>
   <si>
     <t>Final Presentation work</t>
+  </si>
+  <si>
+    <t>Finalize Deisgn Plan</t>
+  </si>
+  <si>
+    <t>Finalize Skeleton Setup</t>
+  </si>
+  <si>
+    <t>Client Meeting</t>
+  </si>
+  <si>
+    <t>Finsh Milestone 6</t>
+  </si>
+  <si>
+    <t>TUI and Makefile implementation</t>
   </si>
 </sst>
 </file>
@@ -496,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1027,11 +1042,11 @@
         <v>44621.447916666664</v>
       </c>
       <c r="C29" s="5">
-        <f>B29-A29</f>
+        <f t="shared" ref="C29:C38" si="3">B29-A29</f>
         <v>3.125E-2</v>
       </c>
       <c r="D29" s="5">
-        <f>C29+D28</f>
+        <f t="shared" ref="D29:D34" si="4">C29+D28</f>
         <v>0.73958333332848269</v>
       </c>
       <c r="E29" t="s">
@@ -1046,11 +1061,11 @@
         <v>44622.427083333336</v>
       </c>
       <c r="C30" s="5">
-        <f>B30-A30</f>
+        <f t="shared" si="3"/>
         <v>1.0416666671517305E-2</v>
       </c>
       <c r="D30" s="5">
-        <f>C30+D29</f>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="E30" t="s">
@@ -1065,11 +1080,11 @@
         <v>44622.59375</v>
       </c>
       <c r="C31" s="5">
-        <f>B31-A31</f>
+        <f t="shared" si="3"/>
         <v>1.0416666664241347E-2</v>
       </c>
       <c r="D31" s="5">
-        <f>C31+D30</f>
+        <f t="shared" si="4"/>
         <v>0.76041666666424135</v>
       </c>
       <c r="E31" t="s">
@@ -1084,11 +1099,11 @@
         <v>44631.041666666664</v>
       </c>
       <c r="C32" s="5">
-        <f>B32-A32</f>
+        <f t="shared" si="3"/>
         <v>4.1666666664241347E-2</v>
       </c>
       <c r="D32" s="5">
-        <f>C32+D31</f>
+        <f t="shared" si="4"/>
         <v>0.80208333332848269</v>
       </c>
       <c r="E32" t="s">
@@ -1103,11 +1118,11 @@
         <v>44636.416666666664</v>
       </c>
       <c r="C33" s="5">
-        <f>B33-A33</f>
+        <f t="shared" si="3"/>
         <v>6.25E-2</v>
       </c>
       <c r="D33" s="5">
-        <f>C33+D32</f>
+        <f t="shared" si="4"/>
         <v>0.86458333332848269</v>
       </c>
       <c r="E33" t="s">
@@ -1122,16 +1137,183 @@
         <v>44636.447916666664</v>
       </c>
       <c r="C34" s="5">
-        <f>B34-A34</f>
+        <f t="shared" si="3"/>
         <v>3.125E-2</v>
       </c>
       <c r="D34" s="5">
-        <f>C34+D33</f>
+        <f t="shared" si="4"/>
         <v>0.89583333332848269</v>
       </c>
       <c r="E34" t="s">
         <v>31</v>
       </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>44654.583333333336</v>
+      </c>
+      <c r="B36" s="7">
+        <v>44654.614583333336</v>
+      </c>
+      <c r="C36" s="5">
+        <f>B37-A37</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="D36" s="5">
+        <f>C36</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <v>44655.416666666664</v>
+      </c>
+      <c r="B37" s="7">
+        <v>44655.447916666664</v>
+      </c>
+      <c r="C37" s="5">
+        <f>B38-A38</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="D37" s="5">
+        <f>D36+C37</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>44655.458333333336</v>
+      </c>
+      <c r="B38" s="7">
+        <v>44655.489583333336</v>
+      </c>
+      <c r="C38" s="5">
+        <f>B38-A38</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="D38" s="5">
+        <f>C38+D37</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <v>44656.59375</v>
+      </c>
+      <c r="B39" s="7">
+        <v>44656.604166666664</v>
+      </c>
+      <c r="C39" s="5">
+        <f>B39-A39</f>
+        <v>1.0416666664241347E-2</v>
+      </c>
+      <c r="D39" s="5">
+        <f>C39+D38</f>
+        <v>0.10416666666424135</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
+        <v>44657.583333333336</v>
+      </c>
+      <c r="B40" s="7">
+        <v>44657.604166666664</v>
+      </c>
+      <c r="C40" s="5">
+        <f>B40-A40</f>
+        <v>2.0833333328482695E-2</v>
+      </c>
+      <c r="D40" s="5">
+        <f>C40+D39</f>
+        <v>0.12499999999272404</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <v>44657.604166666664</v>
+      </c>
+      <c r="B41" s="7">
+        <v>44657.625</v>
+      </c>
+      <c r="C41" s="5">
+        <f>B41-A41</f>
+        <v>2.0833333335758653E-2</v>
+      </c>
+      <c r="D41" s="5">
+        <f>C41+D40</f>
+        <v>0.14583333332848269</v>
+      </c>
+      <c r="E41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <v>44661.604166666664</v>
+      </c>
+      <c r="B42" s="7">
+        <v>44661.635416666664</v>
+      </c>
+      <c r="C42" s="5">
+        <f>B42-A42</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="D42" s="5">
+        <f>C42+D41</f>
+        <v>0.17708333332848269</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <v>44664.395833333336</v>
+      </c>
+      <c r="B43" s="7">
+        <v>44664.479166666664</v>
+      </c>
+      <c r="C43" s="5">
+        <f>B43-A43</f>
+        <v>8.3333333328482695E-2</v>
+      </c>
+      <c r="D43" s="5">
+        <f>C43+D42</f>
+        <v>0.26041666665696539</v>
+      </c>
+      <c r="E43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C46" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/kevin_time_log.xlsx
+++ b/docs/time_logs/kevin_time_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0ACAE29-DCE2-4215-A83C-FBEACE2881CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F731B61C-F08B-4B59-BC30-623700EBC9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1680" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Name Here</t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t>TUI and Makefile implementation</t>
+  </si>
+  <si>
+    <t>TUI Implemenation with window creation and printing to screen</t>
+  </si>
+  <si>
+    <t>TUI Implementation with reading input from user</t>
+  </si>
+  <si>
+    <t>TUI broke down so it was deconstructed to try and find problem</t>
   </si>
 </sst>
 </file>
@@ -511,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1042,7 +1051,7 @@
         <v>44621.447916666664</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" ref="C29:C38" si="3">B29-A29</f>
+        <f t="shared" ref="C29:C34" si="3">B29-A29</f>
         <v>3.125E-2</v>
       </c>
       <c r="D29" s="5">
@@ -1200,11 +1209,11 @@
         <v>44655.489583333336</v>
       </c>
       <c r="C38" s="5">
-        <f>B38-A38</f>
+        <f t="shared" ref="C38:C46" si="5">B38-A38</f>
         <v>3.125E-2</v>
       </c>
       <c r="D38" s="5">
-        <f>C38+D37</f>
+        <f t="shared" ref="D38:D48" si="6">C38+D37</f>
         <v>9.375E-2</v>
       </c>
       <c r="E38" t="s">
@@ -1219,11 +1228,11 @@
         <v>44656.604166666664</v>
       </c>
       <c r="C39" s="5">
-        <f>B39-A39</f>
+        <f t="shared" si="5"/>
         <v>1.0416666664241347E-2</v>
       </c>
       <c r="D39" s="5">
-        <f>C39+D38</f>
+        <f t="shared" si="6"/>
         <v>0.10416666666424135</v>
       </c>
       <c r="E39" t="s">
@@ -1238,11 +1247,11 @@
         <v>44657.604166666664</v>
       </c>
       <c r="C40" s="5">
-        <f>B40-A40</f>
+        <f t="shared" si="5"/>
         <v>2.0833333328482695E-2</v>
       </c>
       <c r="D40" s="5">
-        <f>C40+D39</f>
+        <f t="shared" si="6"/>
         <v>0.12499999999272404</v>
       </c>
       <c r="E40" t="s">
@@ -1257,11 +1266,11 @@
         <v>44657.625</v>
       </c>
       <c r="C41" s="5">
-        <f>B41-A41</f>
+        <f t="shared" si="5"/>
         <v>2.0833333335758653E-2</v>
       </c>
       <c r="D41" s="5">
-        <f>C41+D40</f>
+        <f t="shared" si="6"/>
         <v>0.14583333332848269</v>
       </c>
       <c r="E41" t="s">
@@ -1276,11 +1285,11 @@
         <v>44661.635416666664</v>
       </c>
       <c r="C42" s="5">
-        <f>B42-A42</f>
+        <f t="shared" si="5"/>
         <v>3.125E-2</v>
       </c>
       <c r="D42" s="5">
-        <f>C42+D41</f>
+        <f t="shared" si="6"/>
         <v>0.17708333332848269</v>
       </c>
       <c r="E42" t="s">
@@ -1295,11 +1304,11 @@
         <v>44664.479166666664</v>
       </c>
       <c r="C43" s="5">
-        <f>B43-A43</f>
+        <f t="shared" si="5"/>
         <v>8.3333333328482695E-2</v>
       </c>
       <c r="D43" s="5">
-        <f>C43+D42</f>
+        <f t="shared" si="6"/>
         <v>0.26041666665696539</v>
       </c>
       <c r="E43" t="s">
@@ -1307,13 +1316,99 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C44" s="5"/>
+      <c r="A44" s="7">
+        <v>44669.604166666664</v>
+      </c>
+      <c r="B44" s="7">
+        <v>44669.625</v>
+      </c>
+      <c r="C44" s="5">
+        <f t="shared" si="5"/>
+        <v>2.0833333335758653E-2</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" si="6"/>
+        <v>0.28124999999272404</v>
+      </c>
+      <c r="E44" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C45" s="5"/>
+      <c r="A45" s="7">
+        <v>44671.59375</v>
+      </c>
+      <c r="B45" s="7">
+        <v>44671.604166666664</v>
+      </c>
+      <c r="C45" s="5">
+        <f t="shared" si="5"/>
+        <v>1.0416666664241347E-2</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" si="6"/>
+        <v>0.29166666665696539</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C46" s="5"/>
+      <c r="A46" s="7">
+        <v>44672.666666666664</v>
+      </c>
+      <c r="B46" s="7">
+        <v>44672.729166666664</v>
+      </c>
+      <c r="C46" s="5">
+        <f>B46-A46</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="6"/>
+        <v>0.35416666665696539</v>
+      </c>
+      <c r="E46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>44674.625</v>
+      </c>
+      <c r="B47" s="7">
+        <v>44674.6875</v>
+      </c>
+      <c r="C47" s="5">
+        <f>B47-A47</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" si="6"/>
+        <v>0.41666666665696539</v>
+      </c>
+      <c r="E47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
+        <v>44676.458333333336</v>
+      </c>
+      <c r="B48" s="7">
+        <v>44676.520833333336</v>
+      </c>
+      <c r="C48" s="5">
+        <f>B48-A48</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D48" s="5">
+        <f t="shared" si="6"/>
+        <v>0.47916666665696539</v>
+      </c>
+      <c r="E48" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/kevin_time_log.xlsx
+++ b/docs/time_logs/kevin_time_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F731B61C-F08B-4B59-BC30-623700EBC9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4F704D-0A8E-46A8-9E81-1FEF5B02B948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23490" yWindow="-120" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>Name Here</t>
   </si>
@@ -152,6 +152,30 @@
   </si>
   <si>
     <t>TUI broke down so it was deconstructed to try and find problem</t>
+  </si>
+  <si>
+    <t>Meeting with Phil to debug window size error</t>
+  </si>
+  <si>
+    <t>Placeholder Network display and taking user iput for network selection</t>
+  </si>
+  <si>
+    <t>User input for network selection and brainstorming names</t>
+  </si>
+  <si>
+    <t>Working on TUI subwindow and transfering work to master branch</t>
+  </si>
+  <si>
+    <t>Work on BDS Makefile</t>
+  </si>
+  <si>
+    <t>Work on BSD Makefile and Subwindow configuration</t>
+  </si>
+  <si>
+    <t>Implementation of Network Display</t>
+  </si>
+  <si>
+    <t>Milestone 9 and time log updates</t>
   </si>
 </sst>
 </file>
@@ -520,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1209,11 +1233,11 @@
         <v>44655.489583333336</v>
       </c>
       <c r="C38" s="5">
-        <f t="shared" ref="C38:C46" si="5">B38-A38</f>
+        <f t="shared" ref="C38:C45" si="5">B38-A38</f>
         <v>3.125E-2</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" ref="D38:D48" si="6">C38+D37</f>
+        <f t="shared" ref="D38:D60" si="6">C38+D37</f>
         <v>9.375E-2</v>
       </c>
       <c r="E38" t="s">
@@ -1408,6 +1432,272 @@
       </c>
       <c r="E48" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>44676.625</v>
+      </c>
+      <c r="B49" s="7">
+        <v>44676.6875</v>
+      </c>
+      <c r="C49" s="5">
+        <f>B49-A49</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D49" s="5">
+        <f t="shared" si="6"/>
+        <v>0.54166666665696539</v>
+      </c>
+      <c r="E49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
+        <v>44677.75</v>
+      </c>
+      <c r="B50" s="7">
+        <v>44677.8125</v>
+      </c>
+      <c r="C50" s="5">
+        <f>B50-A50</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D50" s="5">
+        <f t="shared" si="6"/>
+        <v>0.60416666665696539</v>
+      </c>
+      <c r="E50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
+        <v>44678.583333333336</v>
+      </c>
+      <c r="B51" s="7">
+        <v>44678.604166666664</v>
+      </c>
+      <c r="C51" s="5">
+        <f>B51-A51</f>
+        <v>2.0833333328482695E-2</v>
+      </c>
+      <c r="D51" s="5">
+        <f t="shared" si="6"/>
+        <v>0.62499999998544808</v>
+      </c>
+      <c r="E51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
+        <v>44676.604166666664</v>
+      </c>
+      <c r="B52" s="7">
+        <v>44676.625</v>
+      </c>
+      <c r="C52" s="5">
+        <f>B52-A52</f>
+        <v>2.0833333335758653E-2</v>
+      </c>
+      <c r="D52" s="5">
+        <f t="shared" si="6"/>
+        <v>0.64583333332120674</v>
+      </c>
+      <c r="E52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
+        <v>44680.6875</v>
+      </c>
+      <c r="B53" s="7">
+        <v>44680.75</v>
+      </c>
+      <c r="C53" s="5">
+        <f>B53-A53</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D53" s="5">
+        <f t="shared" si="6"/>
+        <v>0.70833333332120674</v>
+      </c>
+      <c r="E53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
+        <v>44683.791666666664</v>
+      </c>
+      <c r="B54" s="7">
+        <v>44683.822916666664</v>
+      </c>
+      <c r="C54" s="5">
+        <f>B54-A54</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="D54" s="5">
+        <f t="shared" si="6"/>
+        <v>0.73958333332120674</v>
+      </c>
+      <c r="E54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
+        <v>44683.604166666664</v>
+      </c>
+      <c r="B55" s="7">
+        <v>44683.625</v>
+      </c>
+      <c r="C55" s="5">
+        <f>B55-A55</f>
+        <v>2.0833333335758653E-2</v>
+      </c>
+      <c r="D55" s="5">
+        <f t="shared" si="6"/>
+        <v>0.76041666665696539</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="7">
+        <v>44686.697916666664</v>
+      </c>
+      <c r="B56" s="7">
+        <v>44686.760416666664</v>
+      </c>
+      <c r="C56" s="5">
+        <f>B56-A56</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D56" s="5">
+        <f t="shared" si="6"/>
+        <v>0.82291666665696539</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
+        <v>44690.770833333336</v>
+      </c>
+      <c r="B57" s="7">
+        <v>44690.8125</v>
+      </c>
+      <c r="C57" s="5">
+        <f>B57-A57</f>
+        <v>4.1666666664241347E-2</v>
+      </c>
+      <c r="D57" s="5">
+        <f t="shared" si="6"/>
+        <v>0.86458333332120674</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
+        <v>44692.604166666664</v>
+      </c>
+      <c r="B58" s="7">
+        <v>44692.625</v>
+      </c>
+      <c r="C58" s="5">
+        <f>B58-A58</f>
+        <v>2.0833333335758653E-2</v>
+      </c>
+      <c r="D58" s="5">
+        <f t="shared" si="6"/>
+        <v>0.88541666665696539</v>
+      </c>
+      <c r="E58" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <v>44694.729166666664</v>
+      </c>
+      <c r="B59" s="7">
+        <v>44694.802083333336</v>
+      </c>
+      <c r="C59" s="5">
+        <f>B59-A59</f>
+        <v>7.2916666671517305E-2</v>
+      </c>
+      <c r="D59" s="5">
+        <f t="shared" si="6"/>
+        <v>0.95833333332848269</v>
+      </c>
+      <c r="E59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="7">
+        <v>44697.041666666664</v>
+      </c>
+      <c r="B60" s="7">
+        <v>44697.104166666664</v>
+      </c>
+      <c r="C60" s="5">
+        <f>B60-A60</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D60" s="5">
+        <f>C60+D59</f>
+        <v>1.0208333333284827</v>
+      </c>
+      <c r="E60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="7">
+        <v>44697.604166666664</v>
+      </c>
+      <c r="B61" s="7">
+        <v>44697.625</v>
+      </c>
+      <c r="C61" s="5">
+        <f>B61-A61</f>
+        <v>2.0833333335758653E-2</v>
+      </c>
+      <c r="D61" s="5">
+        <f>C61+D60</f>
+        <v>1.0416666666642413</v>
+      </c>
+      <c r="E61" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="7">
+        <v>44699.458333333336</v>
+      </c>
+      <c r="B62" s="7">
+        <v>44699.5</v>
+      </c>
+      <c r="C62" s="5">
+        <f>B62-A62</f>
+        <v>4.1666666664241347E-2</v>
+      </c>
+      <c r="D62" s="5">
+        <f>C62+D61</f>
+        <v>1.0833333333284827</v>
+      </c>
+      <c r="E62" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
